--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948628.3555640007</v>
+        <v>-951109.27538946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>89.07500343378675</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>254.3164656960595</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.90971209565812</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20.6886992560571</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>55.06995853998067</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>52.35784172413381</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
@@ -1777,13 +1777,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.9892309165714</v>
+        <v>43.77076234849004</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>119.3934559514726</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>287.3256240034752</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9383736358136</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>275.027409325836</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H20" t="n">
-        <v>52.97552838455504</v>
+        <v>220.6411254041921</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>133.9254590121765</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411907</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130723</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6420543130723</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782822</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279765</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433857</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145466</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279765</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433857</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145466</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="32">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124555</v>
@@ -3235,7 +3235,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>124.3541982182264</v>
       </c>
       <c r="C37" t="n">
         <v>69.56210087052288</v>
@@ -3430,7 +3430,7 @@
         <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>47.73632779482629</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>231.0452163728793</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
         <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
-        <v>42.20693826439329</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3718,16 +3718,16 @@
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>196.6598613601167</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>48.74924241846422</v>
@@ -3910,13 +3910,13 @@
         <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>110.5480262953167</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439375</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>93.13769105450135</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>68.34108803092327</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.0438109257879</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -4198,7 +4198,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1544.431083779909</v>
+        <v>2140.018136355092</v>
       </c>
       <c r="C11" t="n">
-        <v>1544.431083779909</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D11" t="n">
-        <v>1213.357452432883</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597798</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329909</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V11" t="n">
-        <v>2938.636400312142</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.059812301752</v>
+        <v>2502.96540107118</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.786121300396</v>
+        <v>2502.96540107118</v>
       </c>
       <c r="Y11" t="n">
-        <v>1903.838856584308</v>
+        <v>2140.018136355092</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609367</v>
+        <v>418.3126375609353</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609367</v>
+        <v>276.5685218927521</v>
       </c>
       <c r="D13" t="n">
-        <v>418.3126375609367</v>
+        <v>276.5685218927521</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420901</v>
+        <v>276.5685218927521</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.167030653553</v>
+        <v>967.1670306535516</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152594</v>
+        <v>766.3695470152579</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314529</v>
+        <v>572.7690351314513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.822967855899</v>
+        <v>1796.226782517379</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1454.456332836691</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E14" t="n">
         <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597798</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H14" t="n">
-        <v>81.316947932991</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3269.979600861716</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3091.193920505661</v>
       </c>
       <c r="U14" t="n">
-        <v>3189.620511583733</v>
+        <v>2864.855511039221</v>
       </c>
       <c r="V14" t="n">
-        <v>3189.620511583733</v>
+        <v>2864.855511039221</v>
       </c>
       <c r="W14" t="n">
-        <v>2864.043923573342</v>
+        <v>2864.855511039221</v>
       </c>
       <c r="X14" t="n">
-        <v>2517.770232571987</v>
+        <v>2518.581820037865</v>
       </c>
       <c r="Y14" t="n">
-        <v>2154.822967855899</v>
+        <v>2155.634555321777</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237414</v>
+        <v>567.7002581836414</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555582</v>
+        <v>425.9561425154582</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029462</v>
+        <v>425.9561425154582</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802768</v>
+        <v>305.2351161927887</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075786</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.378371290403</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.88595034424</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1393.88595034424</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X16" t="n">
-        <v>1193.088466705946</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194257</v>
+        <v>722.1566557541576</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1544.173786276204</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>966.228971144636</v>
       </c>
       <c r="E17" t="n">
         <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936081</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800307</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1856.131926132529</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>474.8272962671181</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879834</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604104</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356241</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454038</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1685.88907321509</v>
+        <v>1518.904057542004</v>
       </c>
       <c r="C20" t="n">
-        <v>1391.568256482475</v>
+        <v>1224.583240809389</v>
       </c>
       <c r="D20" t="n">
-        <v>1107.944258083522</v>
+        <v>940.9592424104353</v>
       </c>
       <c r="E20" t="n">
-        <v>796.7977056930745</v>
+        <v>629.8126900199881</v>
       </c>
       <c r="F20" t="n">
-        <v>460.453501111264</v>
+        <v>629.8126900199881</v>
       </c>
       <c r="G20" t="n">
-        <v>120.0227511640572</v>
+        <v>289.3819400727816</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3146.717045090803</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2890.29585795503</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2612.168902892713</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2313.34484483943</v>
+        <v>2146.359829166343</v>
       </c>
       <c r="Y20" t="n">
-        <v>1997.847213071415</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>632.1517731235556</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>537.8572904034457</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>462.3823511989071</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>389.1109578243111</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>739.1585377459983</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
@@ -5975,10 +5975,10 @@
         <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531248</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
         <v>73.37775482248237</v>
@@ -5987,37 +5987,37 @@
         <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018608</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917071</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.04802641204</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470822</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.799314350159</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707337</v>
+        <v>3343.748752776753</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932663</v>
@@ -6026,7 +6026,7 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6060,19 +6060,19 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,10 +6084,10 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774827516155</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775272</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.2179954528784</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634003</v>
+        <v>96.06173179633996</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6148,13 +6148,13 @@
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259233</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935703</v>
+        <v>829.1450609357028</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999699</v>
+        <v>682.9941819999697</v>
       </c>
     </row>
     <row r="26">
@@ -6212,58 +6212,58 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398485</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2623.499963990483</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3126.47243486982</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833286</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
         <v>190.6561028572837</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,13 +6309,13 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6333,13 +6333,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
         <v>1540.005790936169</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467803</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6491,10 +6491,10 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991704</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890168</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
@@ -6728,13 +6728,13 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,28 +6777,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6841,13 +6841,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,22 +6859,22 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6965,7 +6965,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6990,70 +6990,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159869</v>
@@ -7093,16 +7093,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>847.3337107649977</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>626.5411316214676</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7205,7 +7205,7 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,16 +7254,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866007</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325372</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202014</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378083</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398979</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884603</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063181</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.555435342997</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389139</v>
+        <v>740.9069705127578</v>
       </c>
       <c r="C43" t="n">
-        <v>473.299353011007</v>
+        <v>571.9707875848509</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725147</v>
+        <v>421.8541481725151</v>
       </c>
       <c r="E43" t="n">
-        <v>372.612489163965</v>
+        <v>372.6124891639654</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398981</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>156.6911396146174</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063185</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,19 +7588,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
         <v>1364.740431699975</v>
@@ -7612,7 +7612,7 @@
         <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691537</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7719,25 +7719,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647792</v>
+        <v>740.9069705127579</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368723</v>
+        <v>670.6422221586944</v>
       </c>
       <c r="D46" t="n">
-        <v>379.22087719838</v>
+        <v>576.5637463460668</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>428.6506527636736</v>
       </c>
       <c r="F46" t="n">
         <v>281.7607052657633</v>
@@ -7807,13 +7807,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1692.975392941184</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1569.880212084553</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>946.005145338841</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>823.8840007691542</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430627</v>
+        <v>157.2353108430632</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729002</v>
+        <v>184.403943372901</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389597</v>
+        <v>191.4948909389607</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333059</v>
+        <v>181.085632533307</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830233</v>
+        <v>179.3553748830244</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383983</v>
+        <v>182.8301554383993</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586578</v>
+        <v>190.8908035586587</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266119</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875972</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372529</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672269</v>
+        <v>105.9629718672276</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253587</v>
+        <v>104.1013981253595</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677591</v>
+        <v>92.30246558677679</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835973</v>
+        <v>106.8829608359738</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798319</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615454</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564655</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085224</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140775</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530922</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662702</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.7178102063604</v>
+        <v>18.01571720695043</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>165.390262243154</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591231</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550059</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>108.7354935515729</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>265.9352200513486</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>68.00435643422712</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>97.60410396378457</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>97.81220217974771</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.19765666106875</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.7171836476417</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.67527584839692</v>
+        <v>147.8937444164783</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>155.9522295602214</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.01703144685928</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>167.7369527970464</v>
+        <v>0.07135577740930898</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1053013.268519861</v>
+        <v>1053013.26851986</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1053013.268519861</v>
+        <v>1053013.26851986</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>266264.8100830375</v>
       </c>
       <c r="C2" t="n">
-        <v>266264.8100830376</v>
+        <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266272.0676869326</v>
+        <v>266272.0676869325</v>
       </c>
       <c r="E2" t="n">
         <v>237100.5002941171</v>
       </c>
       <c r="F2" t="n">
-        <v>237100.500294117</v>
+        <v>237100.5002941171</v>
       </c>
       <c r="G2" t="n">
         <v>258222.5169051246</v>
@@ -26332,28 +26332,28 @@
         <v>258222.5169051245</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="J2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="K2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="L2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="M2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="N2" t="n">
         <v>266838.5752058921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>266838.5752058919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>266838.5752058921</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552381</v>
+        <v>59764.55367552246</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487414</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983369</v>
+        <v>22821.46782983354</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,40 +26421,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913871</v>
+        <v>439568.9169913876</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367442</v>
+        <v>41244.04987367435</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367445</v>
+        <v>41244.04987367435</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511664</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511664</v>
+        <v>78272.21023511667</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057466</v>
+        <v>93189.85962057464</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.7509922607</v>
+        <v>93063.75099226073</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226079</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226076</v>
+        <v>93063.75099226067</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="N4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="O4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93403.78684820635</v>
       </c>
       <c r="P4" t="n">
         <v>93403.78684820633</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="K5" t="n">
-        <v>89377.9416748061</v>
-      </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230513.5210190722</v>
+        <v>-230517.9345969404</v>
       </c>
       <c r="C6" t="n">
-        <v>-230513.5210190722</v>
+        <v>-230517.9345969404</v>
       </c>
       <c r="D6" t="n">
-        <v>-268210.3084118447</v>
+        <v>-268214.6661619897</v>
       </c>
       <c r="E6" t="n">
-        <v>-969952.0121080148</v>
+        <v>-970180.7665304143</v>
       </c>
       <c r="F6" t="n">
-        <v>119286.9600556163</v>
+        <v>119058.2056332181</v>
       </c>
       <c r="G6" t="n">
-        <v>61851.55424991899</v>
+        <v>61785.27687837453</v>
       </c>
       <c r="H6" t="n">
-        <v>99431.663544793</v>
+        <v>99365.38617324861</v>
       </c>
       <c r="I6" t="n">
-        <v>65090.71945364178</v>
+        <v>65090.71945364197</v>
       </c>
       <c r="J6" t="n">
-        <v>58987.44951702823</v>
+        <v>58987.44951702822</v>
       </c>
       <c r="K6" t="n">
-        <v>84396.88253882526</v>
+        <v>84396.8825388251</v>
       </c>
       <c r="L6" t="n">
-        <v>46816.77324395101</v>
+        <v>46816.77324395115</v>
       </c>
       <c r="M6" t="n">
-        <v>-111251.9089412884</v>
+        <v>-111251.9089412883</v>
       </c>
       <c r="N6" t="n">
-        <v>90916.1910514358</v>
+        <v>90916.19105143599</v>
       </c>
       <c r="O6" t="n">
-        <v>90916.19105143583</v>
+        <v>90916.19105143577</v>
       </c>
       <c r="P6" t="n">
-        <v>90916.19105143596</v>
+        <v>90916.19105143577</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790761</v>
+        <v>69.78465283790604</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26826,7 +26826,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790761</v>
+        <v>69.78465283790604</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.139307860380569e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873671</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780172</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672097</v>
+        <v>84.22861846672109</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987501</v>
+        <v>90.83829126987523</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519069</v>
+        <v>84.46220888519089</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990081</v>
+        <v>7.649035050990411</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317034</v>
+        <v>75.62456067317058</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E19" t="n">
-        <v>11.49558901075557</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.495589010755</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075471</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075574</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V25" t="n">
-        <v>11.49558901075574</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075491</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661858981</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371091</v>
       </c>
       <c r="C37" t="n">
         <v>97.68472022810495</v>
@@ -30150,7 +30150,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>97.68472022810495</v>
@@ -30162,7 +30162,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>55.47778196371166</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544482</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810495</v>
@@ -30438,16 +30438,16 @@
         <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>97.68472022810495</v>
@@ -30630,13 +30630,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>55.47778196371154</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>54.14548214544434</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810495</v>
@@ -30684,7 +30684,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,19 +30852,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371101</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>97.68472022810495</v>
@@ -30873,7 +30873,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,10 +30900,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>46.72521440565399</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
         <v>97.68472022810495</v>
@@ -30918,7 +30918,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>97.68472022810495</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413369</v>
+        <v>0.2805413179413306</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366718</v>
+        <v>2.873093772366653</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599334</v>
+        <v>10.81556915993316</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362357</v>
+        <v>23.81059368362303</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208037</v>
+        <v>35.68590767207956</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102757</v>
+        <v>44.27152403102657</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396681</v>
+        <v>49.2606006939657</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356764</v>
+        <v>50.05768871356651</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328847</v>
+        <v>47.2680559832874</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661171</v>
+        <v>40.3421921966108</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783757</v>
+        <v>30.29530624783688</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313252</v>
+        <v>17.62255356313212</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588222</v>
+        <v>6.392835282588077</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288203</v>
+        <v>1.228069619288175</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530695</v>
+        <v>0.02244330543530644</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796503</v>
+        <v>0.150102838179647</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840307</v>
+        <v>1.449677410840275</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694103</v>
+        <v>5.168014384693985</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906951</v>
+        <v>14.18142647906919</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710608</v>
+        <v>24.23831663710554</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264733</v>
+        <v>32.59140791264659</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665965</v>
+        <v>38.03263579665879</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965574</v>
+        <v>39.03924649655652</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847146</v>
+        <v>35.71328360847065</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449832</v>
+        <v>28.66305863449767</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447607</v>
+        <v>19.16049562447564</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768118</v>
+        <v>9.319542882767909</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608854</v>
+        <v>2.788094384608791</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189029</v>
+        <v>0.6050197731890153</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345421</v>
+        <v>0.009875186722345199</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486858</v>
+        <v>0.125841177248683</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811044</v>
+        <v>1.118842466811019</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078663</v>
+        <v>3.784387403078577</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482089</v>
+        <v>8.896971231481889</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489277</v>
+        <v>14.62045677489244</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477281</v>
+        <v>18.70915102477239</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908263</v>
+        <v>19.72617653908219</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115573</v>
+        <v>19.2571321511553</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875062</v>
+        <v>17.78707839875022</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287742</v>
+        <v>15.21991838287707</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852405</v>
+        <v>10.53748257852381</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381819</v>
+        <v>5.658276933381691</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233915</v>
+        <v>2.193068516233866</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625666</v>
+        <v>0.5376850300625545</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564691</v>
+        <v>0.006864064213564535</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563583</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.5121150100798</v>
+        <v>268.8100220106699</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>564.1522484625259</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813709</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120738</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564835</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237184</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>359.5297983552924</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
